--- a/natmiOut/OldD7/LR-pairs_lrc2p/Mfge8-Pdgfrb.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Mfge8-Pdgfrb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.3271549683646</v>
+        <v>31.29437</v>
       </c>
       <c r="H2">
-        <v>29.3271549683646</v>
+        <v>93.88310999999999</v>
       </c>
       <c r="I2">
-        <v>0.3127330459359014</v>
+        <v>0.2388439922596655</v>
       </c>
       <c r="J2">
-        <v>0.3127330459359014</v>
+        <v>0.2388439922596655</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.9759103192808</v>
+        <v>23.463916</v>
       </c>
       <c r="N2">
-        <v>16.9759103192808</v>
+        <v>70.39174800000001</v>
       </c>
       <c r="O2">
-        <v>0.1304071842815303</v>
+        <v>0.1350973942042957</v>
       </c>
       <c r="P2">
-        <v>0.1304071842815303</v>
+        <v>0.1350973942042957</v>
       </c>
       <c r="Q2">
-        <v>497.8551526626078</v>
+        <v>734.28846895292</v>
       </c>
       <c r="R2">
-        <v>497.8551526626078</v>
+        <v>6608.59622057628</v>
       </c>
       <c r="S2">
-        <v>0.04078263595228736</v>
+        <v>0.03226720097563178</v>
       </c>
       <c r="T2">
-        <v>0.04078263595228736</v>
+        <v>0.03226720097563178</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.3271549683646</v>
+        <v>31.29437</v>
       </c>
       <c r="H3">
-        <v>29.3271549683646</v>
+        <v>93.88310999999999</v>
       </c>
       <c r="I3">
-        <v>0.3127330459359014</v>
+        <v>0.2388439922596655</v>
       </c>
       <c r="J3">
-        <v>0.3127330459359014</v>
+        <v>0.2388439922596655</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>87.7771907232728</v>
+        <v>87.90742766666666</v>
       </c>
       <c r="N3">
-        <v>87.7771907232728</v>
+        <v>263.722283</v>
       </c>
       <c r="O3">
-        <v>0.6742952849700149</v>
+        <v>0.5061416180048238</v>
       </c>
       <c r="P3">
-        <v>0.6742952849700149</v>
+        <v>0.5061416180048238</v>
       </c>
       <c r="Q3">
-        <v>2574.255275029117</v>
+        <v>2751.007567148903</v>
       </c>
       <c r="R3">
-        <v>2574.255275029117</v>
+        <v>24759.06810434013</v>
       </c>
       <c r="S3">
-        <v>0.2108744183288894</v>
+        <v>0.1208888846930387</v>
       </c>
       <c r="T3">
-        <v>0.2108744183288894</v>
+        <v>0.1208888846930387</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.3271549683646</v>
+        <v>31.29437</v>
       </c>
       <c r="H4">
-        <v>29.3271549683646</v>
+        <v>93.88310999999999</v>
       </c>
       <c r="I4">
-        <v>0.3127330459359014</v>
+        <v>0.2388439922596655</v>
       </c>
       <c r="J4">
-        <v>0.3127330459359014</v>
+        <v>0.2388439922596655</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>25.4230883507567</v>
+        <v>0.06395099999999999</v>
       </c>
       <c r="N4">
-        <v>25.4230883507567</v>
+        <v>0.191853</v>
       </c>
       <c r="O4">
-        <v>0.1952975307484549</v>
+        <v>0.0003682085060634768</v>
       </c>
       <c r="P4">
-        <v>0.1952975307484549</v>
+        <v>0.0003682085060634769</v>
       </c>
       <c r="Q4">
-        <v>745.5868518370665</v>
+        <v>2.001306255869999</v>
       </c>
       <c r="R4">
-        <v>745.5868518370665</v>
+        <v>18.01175630283</v>
       </c>
       <c r="S4">
-        <v>0.06107599165472465</v>
+        <v>8.794438957216807E-05</v>
       </c>
       <c r="T4">
-        <v>0.06107599165472465</v>
+        <v>8.794438957216809E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>33.558235127601</v>
+        <v>31.29437</v>
       </c>
       <c r="H5">
-        <v>33.558235127601</v>
+        <v>93.88310999999999</v>
       </c>
       <c r="I5">
-        <v>0.357851591775902</v>
+        <v>0.2388439922596655</v>
       </c>
       <c r="J5">
-        <v>0.357851591775902</v>
+        <v>0.2388439922596655</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.9759103192808</v>
+        <v>62.24619000000001</v>
       </c>
       <c r="N5">
-        <v>16.9759103192808</v>
+        <v>186.73857</v>
       </c>
       <c r="O5">
-        <v>0.1304071842815303</v>
+        <v>0.3583927792848171</v>
       </c>
       <c r="P5">
-        <v>0.1304071842815303</v>
+        <v>0.3583927792848171</v>
       </c>
       <c r="Q5">
-        <v>569.6815899994933</v>
+        <v>1947.9553009503</v>
       </c>
       <c r="R5">
-        <v>569.6815899994933</v>
+        <v>17531.5977085527</v>
       </c>
       <c r="S5">
-        <v>0.04666641847415898</v>
+        <v>0.08559996220142287</v>
       </c>
       <c r="T5">
-        <v>0.04666641847415898</v>
+        <v>0.08559996220142287</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>33.558235127601</v>
+        <v>33.86972933333333</v>
       </c>
       <c r="H6">
-        <v>33.558235127601</v>
+        <v>101.609188</v>
       </c>
       <c r="I6">
-        <v>0.357851591775902</v>
+        <v>0.2584995758255442</v>
       </c>
       <c r="J6">
-        <v>0.357851591775902</v>
+        <v>0.2584995758255442</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>87.7771907232728</v>
+        <v>23.463916</v>
       </c>
       <c r="N6">
-        <v>87.7771907232728</v>
+        <v>70.39174800000001</v>
       </c>
       <c r="O6">
-        <v>0.6742952849700149</v>
+        <v>0.1350973942042957</v>
       </c>
       <c r="P6">
-        <v>0.6742952849700149</v>
+        <v>0.1350973942042957</v>
       </c>
       <c r="Q6">
-        <v>2945.647605131866</v>
+        <v>794.7164840200693</v>
       </c>
       <c r="R6">
-        <v>2945.647605131866</v>
+        <v>7152.448356180625</v>
       </c>
       <c r="S6">
-        <v>0.2412976410535053</v>
+        <v>0.03492261909694676</v>
       </c>
       <c r="T6">
-        <v>0.2412976410535053</v>
+        <v>0.03492261909694676</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>33.558235127601</v>
+        <v>33.86972933333333</v>
       </c>
       <c r="H7">
-        <v>33.558235127601</v>
+        <v>101.609188</v>
       </c>
       <c r="I7">
-        <v>0.357851591775902</v>
+        <v>0.2584995758255442</v>
       </c>
       <c r="J7">
-        <v>0.357851591775902</v>
+        <v>0.2584995758255442</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.4230883507567</v>
+        <v>87.90742766666666</v>
       </c>
       <c r="N7">
-        <v>25.4230883507567</v>
+        <v>263.722283</v>
       </c>
       <c r="O7">
-        <v>0.1952975307484549</v>
+        <v>0.5061416180048238</v>
       </c>
       <c r="P7">
-        <v>0.1952975307484549</v>
+        <v>0.5061416180048238</v>
       </c>
       <c r="Q7">
-        <v>853.1539765444674</v>
+        <v>2977.400781459578</v>
       </c>
       <c r="R7">
-        <v>853.1539765444674</v>
+        <v>26796.60703313621</v>
       </c>
       <c r="S7">
-        <v>0.06988753224823772</v>
+        <v>0.1308373935619016</v>
       </c>
       <c r="T7">
-        <v>0.06988753224823772</v>
+        <v>0.1308373935619016</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.807816758982989</v>
+        <v>33.86972933333333</v>
       </c>
       <c r="H8">
-        <v>8.807816758982989</v>
+        <v>101.609188</v>
       </c>
       <c r="I8">
-        <v>0.09392303365441763</v>
+        <v>0.2584995758255442</v>
       </c>
       <c r="J8">
-        <v>0.09392303365441763</v>
+        <v>0.2584995758255442</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>16.9759103192808</v>
+        <v>0.06395099999999999</v>
       </c>
       <c r="N8">
-        <v>16.9759103192808</v>
+        <v>0.191853</v>
       </c>
       <c r="O8">
-        <v>0.1304071842815303</v>
+        <v>0.0003682085060634768</v>
       </c>
       <c r="P8">
-        <v>0.1304071842815303</v>
+        <v>0.0003682085060634769</v>
       </c>
       <c r="Q8">
-        <v>149.5207074091537</v>
+        <v>2.166003060596</v>
       </c>
       <c r="R8">
-        <v>149.5207074091537</v>
+        <v>19.494027545364</v>
       </c>
       <c r="S8">
-        <v>0.01224823835805201</v>
+        <v>9.518174263276607E-05</v>
       </c>
       <c r="T8">
-        <v>0.01224823835805201</v>
+        <v>9.518174263276608E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.807816758982989</v>
+        <v>33.86972933333333</v>
       </c>
       <c r="H9">
-        <v>8.807816758982989</v>
+        <v>101.609188</v>
       </c>
       <c r="I9">
-        <v>0.09392303365441763</v>
+        <v>0.2584995758255442</v>
       </c>
       <c r="J9">
-        <v>0.09392303365441763</v>
+        <v>0.2584995758255442</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>87.7771907232728</v>
+        <v>62.24619000000001</v>
       </c>
       <c r="N9">
-        <v>87.7771907232728</v>
+        <v>186.73857</v>
       </c>
       <c r="O9">
-        <v>0.6742952849700149</v>
+        <v>0.3583927792848171</v>
       </c>
       <c r="P9">
-        <v>0.6742952849700149</v>
+        <v>0.3583927792848171</v>
       </c>
       <c r="Q9">
-        <v>773.1254115088883</v>
+        <v>2108.26160733124</v>
       </c>
       <c r="R9">
-        <v>773.1254115088883</v>
+        <v>18974.35446598116</v>
       </c>
       <c r="S9">
-        <v>0.06333185874325384</v>
+        <v>0.09264438142406309</v>
       </c>
       <c r="T9">
-        <v>0.06333185874325384</v>
+        <v>0.09264438142406309</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.807816758982989</v>
+        <v>10.670404</v>
       </c>
       <c r="H10">
-        <v>8.807816758982989</v>
+        <v>32.011212</v>
       </c>
       <c r="I10">
-        <v>0.09392303365441763</v>
+        <v>0.08143835106389757</v>
       </c>
       <c r="J10">
-        <v>0.09392303365441763</v>
+        <v>0.08143835106389757</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.4230883507567</v>
+        <v>23.463916</v>
       </c>
       <c r="N10">
-        <v>25.4230883507567</v>
+        <v>70.39174800000001</v>
       </c>
       <c r="O10">
-        <v>0.1952975307484549</v>
+        <v>0.1350973942042957</v>
       </c>
       <c r="P10">
-        <v>0.1952975307484549</v>
+        <v>0.1350973942042957</v>
       </c>
       <c r="Q10">
-        <v>223.9219036409001</v>
+        <v>250.369463142064</v>
       </c>
       <c r="R10">
-        <v>223.9219036409001</v>
+        <v>2253.325168278576</v>
       </c>
       <c r="S10">
-        <v>0.01834293655311179</v>
+        <v>0.01100210901702719</v>
       </c>
       <c r="T10">
-        <v>0.01834293655311179</v>
+        <v>0.01100210901702719</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>22.0837551562089</v>
+        <v>10.670404</v>
       </c>
       <c r="H11">
-        <v>22.0837551562089</v>
+        <v>32.011212</v>
       </c>
       <c r="I11">
-        <v>0.2354923286337789</v>
+        <v>0.08143835106389757</v>
       </c>
       <c r="J11">
-        <v>0.2354923286337789</v>
+        <v>0.08143835106389757</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.9759103192808</v>
+        <v>87.90742766666666</v>
       </c>
       <c r="N11">
-        <v>16.9759103192808</v>
+        <v>263.722283</v>
       </c>
       <c r="O11">
-        <v>0.1304071842815303</v>
+        <v>0.5061416180048238</v>
       </c>
       <c r="P11">
-        <v>0.1304071842815303</v>
+        <v>0.5061416180048238</v>
       </c>
       <c r="Q11">
-        <v>374.8918470447572</v>
+        <v>938.0077678041106</v>
       </c>
       <c r="R11">
-        <v>374.8918470447572</v>
+        <v>8442.069910236996</v>
       </c>
       <c r="S11">
-        <v>0.03070989149703189</v>
+        <v>0.04121933877512599</v>
       </c>
       <c r="T11">
-        <v>0.03070989149703189</v>
+        <v>0.04121933877512599</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>22.0837551562089</v>
+        <v>10.670404</v>
       </c>
       <c r="H12">
-        <v>22.0837551562089</v>
+        <v>32.011212</v>
       </c>
       <c r="I12">
-        <v>0.2354923286337789</v>
+        <v>0.08143835106389757</v>
       </c>
       <c r="J12">
-        <v>0.2354923286337789</v>
+        <v>0.08143835106389757</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>87.7771907232728</v>
+        <v>0.06395099999999999</v>
       </c>
       <c r="N12">
-        <v>87.7771907232728</v>
+        <v>0.191853</v>
       </c>
       <c r="O12">
-        <v>0.6742952849700149</v>
+        <v>0.0003682085060634768</v>
       </c>
       <c r="P12">
-        <v>0.6742952849700149</v>
+        <v>0.0003682085060634769</v>
       </c>
       <c r="Q12">
-        <v>1938.449988232607</v>
+        <v>0.6823830062039999</v>
       </c>
       <c r="R12">
-        <v>1938.449988232607</v>
+        <v>6.141447055836</v>
       </c>
       <c r="S12">
-        <v>0.1587913668443663</v>
+        <v>2.998629358151069E-05</v>
       </c>
       <c r="T12">
-        <v>0.1587913668443663</v>
+        <v>2.998629358151069E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>22.0837551562089</v>
+        <v>10.670404</v>
       </c>
       <c r="H13">
-        <v>22.0837551562089</v>
+        <v>32.011212</v>
       </c>
       <c r="I13">
-        <v>0.2354923286337789</v>
+        <v>0.08143835106389757</v>
       </c>
       <c r="J13">
-        <v>0.2354923286337789</v>
+        <v>0.08143835106389757</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.4230883507567</v>
+        <v>62.24619000000001</v>
       </c>
       <c r="N13">
-        <v>25.4230883507567</v>
+        <v>186.73857</v>
       </c>
       <c r="O13">
-        <v>0.1952975307484549</v>
+        <v>0.3583927792848171</v>
       </c>
       <c r="P13">
-        <v>0.1952975307484549</v>
+        <v>0.3583927792848171</v>
       </c>
       <c r="Q13">
-        <v>561.4372584527777</v>
+        <v>664.1919947607601</v>
       </c>
       <c r="R13">
-        <v>561.4372584527777</v>
+        <v>5977.727952846841</v>
       </c>
       <c r="S13">
-        <v>0.04599107029238067</v>
+        <v>0.02918691697816289</v>
       </c>
       <c r="T13">
-        <v>0.04599107029238067</v>
+        <v>0.02918691697816289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>55.18980966666666</v>
+      </c>
+      <c r="H14">
+        <v>165.569429</v>
+      </c>
+      <c r="I14">
+        <v>0.4212180808508926</v>
+      </c>
+      <c r="J14">
+        <v>0.4212180808508926</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>23.463916</v>
+      </c>
+      <c r="N14">
+        <v>70.39174800000001</v>
+      </c>
+      <c r="O14">
+        <v>0.1350973942042957</v>
+      </c>
+      <c r="P14">
+        <v>0.1350973942042957</v>
+      </c>
+      <c r="Q14">
+        <v>1294.969058074655</v>
+      </c>
+      <c r="R14">
+        <v>11654.72152267189</v>
+      </c>
+      <c r="S14">
+        <v>0.05690546511468993</v>
+      </c>
+      <c r="T14">
+        <v>0.05690546511468993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>55.18980966666666</v>
+      </c>
+      <c r="H15">
+        <v>165.569429</v>
+      </c>
+      <c r="I15">
+        <v>0.4212180808508926</v>
+      </c>
+      <c r="J15">
+        <v>0.4212180808508926</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>87.90742766666666</v>
+      </c>
+      <c r="N15">
+        <v>263.722283</v>
+      </c>
+      <c r="O15">
+        <v>0.5061416180048238</v>
+      </c>
+      <c r="P15">
+        <v>0.5061416180048238</v>
+      </c>
+      <c r="Q15">
+        <v>4851.5942012096</v>
+      </c>
+      <c r="R15">
+        <v>43664.34781088641</v>
+      </c>
+      <c r="S15">
+        <v>0.2131960009747575</v>
+      </c>
+      <c r="T15">
+        <v>0.2131960009747575</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>55.18980966666666</v>
+      </c>
+      <c r="H16">
+        <v>165.569429</v>
+      </c>
+      <c r="I16">
+        <v>0.4212180808508926</v>
+      </c>
+      <c r="J16">
+        <v>0.4212180808508926</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.06395099999999999</v>
+      </c>
+      <c r="N16">
+        <v>0.191853</v>
+      </c>
+      <c r="O16">
+        <v>0.0003682085060634768</v>
+      </c>
+      <c r="P16">
+        <v>0.0003682085060634769</v>
+      </c>
+      <c r="Q16">
+        <v>3.529443517992999</v>
+      </c>
+      <c r="R16">
+        <v>31.764991661937</v>
+      </c>
+      <c r="S16">
+        <v>0.000155096080277032</v>
+      </c>
+      <c r="T16">
+        <v>0.000155096080277032</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>55.18980966666666</v>
+      </c>
+      <c r="H17">
+        <v>165.569429</v>
+      </c>
+      <c r="I17">
+        <v>0.4212180808508926</v>
+      </c>
+      <c r="J17">
+        <v>0.4212180808508926</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>62.24619000000001</v>
+      </c>
+      <c r="N17">
+        <v>186.73857</v>
+      </c>
+      <c r="O17">
+        <v>0.3583927792848171</v>
+      </c>
+      <c r="P17">
+        <v>0.3583927792848171</v>
+      </c>
+      <c r="Q17">
+        <v>3435.35537857517</v>
+      </c>
+      <c r="R17">
+        <v>30918.19840717653</v>
+      </c>
+      <c r="S17">
+        <v>0.1509615186811682</v>
+      </c>
+      <c r="T17">
+        <v>0.1509615186811682</v>
       </c>
     </row>
   </sheetData>
